--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H2">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I2">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J2">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>3394.825080278985</v>
+        <v>6.309527325162667</v>
       </c>
       <c r="R2">
-        <v>3394.825080278985</v>
+        <v>56.785745926464</v>
       </c>
       <c r="S2">
-        <v>0.01055004363912566</v>
+        <v>1.908151143349174E-05</v>
       </c>
       <c r="T2">
-        <v>0.01055004363912566</v>
+        <v>1.908151143349174E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H3">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I3">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J3">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>234752.9743694842</v>
+        <v>205.8906308717369</v>
       </c>
       <c r="R3">
-        <v>234752.9743694842</v>
+        <v>1853.015677845632</v>
       </c>
       <c r="S3">
-        <v>0.7295380661583528</v>
+        <v>0.00062266224148995</v>
       </c>
       <c r="T3">
-        <v>0.7295380661583528</v>
+        <v>0.0006226622414899501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H4">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I4">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J4">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>611.7554871505974</v>
+        <v>0.5620372451200001</v>
       </c>
       <c r="R4">
-        <v>611.7554871505974</v>
+        <v>5.05833520608</v>
       </c>
       <c r="S4">
-        <v>0.001901142749123024</v>
+        <v>1.699734317028097E-06</v>
       </c>
       <c r="T4">
-        <v>0.001901142749123024</v>
+        <v>1.699734317028097E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H5">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I5">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J5">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>82167.04711662233</v>
+        <v>71.31289246029156</v>
       </c>
       <c r="R5">
-        <v>82167.04711662233</v>
+        <v>641.816032142624</v>
       </c>
       <c r="S5">
-        <v>0.2553492189668933</v>
+        <v>0.0002156671494883079</v>
       </c>
       <c r="T5">
-        <v>0.2553492189668933</v>
+        <v>0.0002156671494883079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H6">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J6">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>0.8131052238733937</v>
+        <v>7312.389408148732</v>
       </c>
       <c r="R6">
-        <v>0.8131052238733937</v>
+        <v>65811.50467333858</v>
       </c>
       <c r="S6">
-        <v>2.526874107563853E-06</v>
+        <v>0.02211440491608246</v>
       </c>
       <c r="T6">
-        <v>2.526874107563853E-06</v>
+        <v>0.02211440491608247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H7">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J7">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>56.22642264795515</v>
+        <v>238615.7299643257</v>
       </c>
       <c r="R7">
-        <v>56.22642264795515</v>
+        <v>2147541.569678931</v>
       </c>
       <c r="S7">
-        <v>0.0001747339549403535</v>
+        <v>0.7216307252315248</v>
       </c>
       <c r="T7">
-        <v>0.0001747339549403535</v>
+        <v>0.721630725231525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H8">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I8">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J8">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>0.1465234792876238</v>
+        <v>651.36974394427</v>
       </c>
       <c r="R8">
-        <v>0.1465234792876238</v>
+        <v>5862.32769549843</v>
       </c>
       <c r="S8">
-        <v>4.553486745520096E-07</v>
+        <v>0.001969897042356139</v>
       </c>
       <c r="T8">
-        <v>4.553486745520096E-07</v>
+        <v>0.001969897042356139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H9">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I9">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J9">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N9">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q9">
-        <v>19.68008768077277</v>
+        <v>82647.65530239488</v>
       </c>
       <c r="R9">
-        <v>19.68008768077277</v>
+        <v>743828.8977215538</v>
       </c>
       <c r="S9">
-        <v>6.115949391917108E-05</v>
+        <v>0.2499461684419085</v>
       </c>
       <c r="T9">
-        <v>6.115949391917108E-05</v>
+        <v>0.2499461684419085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H10">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I10">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J10">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N10">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q10">
-        <v>8.246430646785068</v>
+        <v>2.932390902655333</v>
       </c>
       <c r="R10">
-        <v>8.246430646785068</v>
+        <v>26.391518123898</v>
       </c>
       <c r="S10">
-        <v>2.562730071013146E-05</v>
+        <v>8.86824759650951E-06</v>
       </c>
       <c r="T10">
-        <v>2.562730071013146E-05</v>
+        <v>8.868247596509512E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H11">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I11">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J11">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q11">
-        <v>570.2426712675796</v>
+        <v>95.68891325701378</v>
       </c>
       <c r="R11">
-        <v>570.2426712675796</v>
+        <v>861.200219313124</v>
       </c>
       <c r="S11">
-        <v>0.001772134034743891</v>
+        <v>0.0002893860345275601</v>
       </c>
       <c r="T11">
-        <v>0.001772134034743891</v>
+        <v>0.0002893860345275602</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H12">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I12">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J12">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N12">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q12">
-        <v>1.486026254160652</v>
+        <v>0.26121020159</v>
       </c>
       <c r="R12">
-        <v>1.486026254160652</v>
+        <v>2.35089181431</v>
       </c>
       <c r="S12">
-        <v>4.618100037423117E-06</v>
+        <v>7.899617818131514E-07</v>
       </c>
       <c r="T12">
-        <v>4.618100037423117E-06</v>
+        <v>7.899617818131515E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.085526333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.256579</v>
+      </c>
+      <c r="I13">
+        <v>0.0003992768531916849</v>
+      </c>
+      <c r="J13">
+        <v>0.0003992768531916849</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N13">
+        <v>91.595467</v>
+      </c>
+      <c r="O13">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P13">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q13">
+        <v>33.14309714748811</v>
+      </c>
+      <c r="R13">
+        <v>298.287874327393</v>
+      </c>
+      <c r="S13">
+        <v>0.0001002326092858021</v>
+      </c>
+      <c r="T13">
+        <v>0.0001002326092858022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H14">
+        <v>25.124474</v>
+      </c>
+      <c r="I14">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J14">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.701354</v>
+      </c>
+      <c r="N14">
+        <v>8.104061999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="P14">
+        <v>0.02221077311549548</v>
+      </c>
+      <c r="Q14">
+        <v>22.62336611259867</v>
+      </c>
+      <c r="R14">
+        <v>203.610295013388</v>
+      </c>
+      <c r="S14">
+        <v>6.841844038301103E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.841844038301103E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H15">
+        <v>25.124474</v>
+      </c>
+      <c r="I15">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J15">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.14978533333333</v>
+      </c>
+      <c r="N15">
+        <v>264.449356</v>
+      </c>
+      <c r="O15">
+        <v>0.7247753838328104</v>
+      </c>
+      <c r="P15">
+        <v>0.7247753838328105</v>
+      </c>
+      <c r="Q15">
+        <v>738.2389965709715</v>
+      </c>
+      <c r="R15">
+        <v>6644.150969138743</v>
+      </c>
+      <c r="S15">
+        <v>0.002232610325267954</v>
+      </c>
+      <c r="T15">
+        <v>0.002232610325267954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.55562266865624</v>
-      </c>
-      <c r="H13">
-        <v>6.55562266865624</v>
-      </c>
-      <c r="I13">
-        <v>0.002422652814863373</v>
-      </c>
-      <c r="J13">
-        <v>0.002422652814863373</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>30.4461470300391</v>
-      </c>
-      <c r="N13">
-        <v>30.4461470300391</v>
-      </c>
-      <c r="O13">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="P13">
-        <v>0.2560306518401845</v>
-      </c>
-      <c r="Q13">
-        <v>199.5934516433652</v>
-      </c>
-      <c r="R13">
-        <v>199.5934516433652</v>
-      </c>
-      <c r="S13">
-        <v>0.0006202733793719273</v>
-      </c>
-      <c r="T13">
-        <v>0.0006202733793719273</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H16">
+        <v>25.124474</v>
+      </c>
+      <c r="I16">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J16">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.24063</v>
+      </c>
+      <c r="N16">
+        <v>0.72189</v>
+      </c>
+      <c r="O16">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="P16">
+        <v>0.001978481285600361</v>
+      </c>
+      <c r="Q16">
+        <v>2.01523405954</v>
+      </c>
+      <c r="R16">
+        <v>18.13710653586</v>
+      </c>
+      <c r="S16">
+        <v>6.094547145381149E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.094547145381149E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H17">
+        <v>25.124474</v>
+      </c>
+      <c r="I17">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J17">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.53182233333333</v>
+      </c>
+      <c r="N17">
+        <v>91.595467</v>
+      </c>
+      <c r="O17">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="P17">
+        <v>0.2510353617660938</v>
+      </c>
+      <c r="Q17">
+        <v>255.6986587954842</v>
+      </c>
+      <c r="R17">
+        <v>2301.287929159358</v>
+      </c>
+      <c r="S17">
+        <v>0.0007732935654112167</v>
+      </c>
+      <c r="T17">
+        <v>0.0007732935654112167</v>
       </c>
     </row>
   </sheetData>
